--- a/who-ddcc-map-icd11-divoc-vaccines.xlsx
+++ b/who-ddcc-map-icd11-divoc-vaccines.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://worldhealthorganization.github.io/ddcc/ConceptMap/WHO_DDCC_Map_ICD11_to_DIVOC_Vaccines</t>
+    <t>http://worldhealthorganization.github.io/ddcc/ConceptMap/who-ddcc-map-icd11-divoc-vaccines</t>
   </si>
   <si>
     <t>Version</t>
@@ -96,22 +96,22 @@
     <t>Source</t>
   </si>
   <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
     <t>http://id.who.int/icd11/mms</t>
   </si>
   <si>
-    <t>Target</t>
+    <t/>
   </si>
   <si>
     <t>http://worldhealthorganization.github.io/ddcc/DIVOC</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Relationship</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>XM6AT1</t>
@@ -308,7 +308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -425,22 +425,6 @@
         <v>25</v>
       </c>
       <c r="B14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -460,33 +444,33 @@
         <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>29</v>
-      </c>
       <c r="E2" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">

--- a/who-ddcc-map-icd11-divoc-vaccines.xlsx
+++ b/who-ddcc-map-icd11-divoc-vaccines.xlsx
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>

--- a/who-ddcc-map-icd11-divoc-vaccines.xlsx
+++ b/who-ddcc-map-icd11-divoc-vaccines.xlsx
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Global (Whole world)</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
